--- a/Output/Media/Oxygen/yl_perox_oxygen_equalmass.xlsx
+++ b/Output/Media/Oxygen/yl_perox_oxygen_equalmass.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -82,28 +82,29 @@
     <t>0.0</t>
   </si>
   <si>
-    <t>octadecanoate n C180 exchange</t>
-  </si>
-  <si>
-    <t>Hexadecanoate n C160 exchange</t>
-  </si>
-  <si>
-    <t>hexadecenoate n C161 exchange</t>
-  </si>
-  <si>
-    <t>octadecynoate n C182 exchange</t>
-  </si>
-  <si>
-    <t>octadecenoate n C181 exchange</t>
-  </si>
-  <si>
-    <t>tetradecanoate n C140 exchange</t>
-  </si>
-  <si>
-    <t>dodecanoate uptake</t>
-  </si>
-  <si>
-    <t>butanoate exchange YL</t>
+    <t xml:space="preserve">stearate exchange
+</t>
+  </si>
+  <si>
+    <t>palmitate exchange</t>
+  </si>
+  <si>
+    <t>palmitoleate exchange</t>
+  </si>
+  <si>
+    <t>methyl stearolate exchange</t>
+  </si>
+  <si>
+    <t>oleate exchange</t>
+  </si>
+  <si>
+    <t>myristate exchange</t>
+  </si>
+  <si>
+    <t>laurate exchange</t>
+  </si>
+  <si>
+    <t>butyrate exchange</t>
   </si>
   <si>
     <t>L Leucine exchange</t>
@@ -145,14 +146,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -163,7 +171,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -175,14 +190,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="9">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -191,10 +235,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -232,69 +276,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -318,54 +364,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -375,7 +420,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -384,7 +429,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -393,7 +438,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -401,10 +446,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -433,7 +478,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -446,13 +491,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
+                <a:tint val="80000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -470,1438 +514,1465 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="6" width="38.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:22">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
-      <c r="A2" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="4">
         <v>4.958785255574877</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="4">
         <v>4.909669594106459</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="4">
         <v>4.649339268978447</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="4">
         <v>4.387507029053419</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="4">
         <v>4.125674789128397</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="4">
         <v>3.863842549203373</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="4">
         <v>3.60201030927835</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="4">
         <v>3.340178069353327</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="4">
         <v>3.078345829428303</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="4">
         <v>2.81651358950328</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="4">
         <v>2.554681349578257</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="4">
         <v>2.292849109653233</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="4">
         <v>2.03101686972821</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="4">
         <v>1.769184629803186</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="4">
         <v>1.507352389878163</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="4">
         <v>1.24552014995314</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="4">
         <v>0.9836879100281161</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="4">
         <v>0.7218110236220475</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="4">
         <v>0.4597539370078743</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="4">
         <v>0.1941472868217055</v>
       </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
-      <c r="A3" t="s">
+      <c r="V2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="4">
         <v>4.846750596917735</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="4">
         <v>4.846750596917736</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
         <v>4.612976718403549</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="4">
         <v>4.353137472283815</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="4">
         <v>4.09329822616408</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="4">
         <v>3.833458980044346</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="4">
         <v>3.573619733924612</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="4">
         <v>3.313780487804878</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="4">
         <v>3.053941241685145</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="4">
         <v>2.79410199556541</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="4">
         <v>2.534262749445677</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="4">
         <v>2.274423503325943</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="4">
         <v>2.014584257206208</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="4">
         <v>1.754745011086475</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="4">
         <v>1.494905764966741</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="4">
         <v>1.235066518847006</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="4">
         <v>0.9752272727272727</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="4">
         <v>0.7153880266075389</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="4">
         <v>0.4555487804878048</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="4">
         <v>0.1944602739726027</v>
       </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
-      <c r="A4" t="s">
+      <c r="V3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4">
         <v>4.816981293121853</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="4">
         <v>4.816981293121845</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="4">
         <v>4.745186124519356</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="4">
         <v>4.486145790722406</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="4">
         <v>4.227105456925467</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="4">
         <v>3.964983564351885</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="4">
         <v>3.701208652276856</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="4">
         <v>3.437433740201826</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="4">
         <v>3.173658828126797</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="4">
         <v>2.905671346120879</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="4">
         <v>2.635666203165771</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="4">
         <v>2.365661060210667</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="4">
         <v>2.095655917255565</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="4">
         <v>1.82565077430046</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="4">
         <v>1.555645631345357</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="4">
         <v>1.285640488390253</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="4">
         <v>1.01563534543515</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="4">
         <v>0.7456302024800465</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="4">
         <v>0.4756250595249429</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="4">
         <v>0.2056199165698394</v>
       </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
-      <c r="A5" t="s">
+      <c r="V4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="4">
         <v>4.808574259200717</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="4">
         <v>4.808574259200726</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="4">
         <v>4.787137463116098</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="4">
         <v>4.597088816731926</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="4">
         <v>4.335387118217122</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="4">
         <v>4.069698680048883</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="4">
         <v>3.801451230055511</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="4">
         <v>3.533203780062133</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="4">
         <v>3.264956330068757</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="4">
         <v>2.99013721185511</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="4">
         <v>2.712283205268936</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="4">
         <v>2.434429198682767</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="4">
         <v>2.156575192096597</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="4">
         <v>1.878721185510429</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="4">
         <v>1.600867178924259</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="4">
         <v>1.32301317233809</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="4">
         <v>1.045159165751921</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="4">
         <v>0.767305159165752</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="4">
         <v>0.4894511525795829</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="4">
         <v>0.2115971459934137</v>
       </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
-      <c r="A6" t="s">
+      <c r="V5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="4">
         <v>4.808574259200725</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="4">
         <v>4.808574259200725</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
         <v>4.681315490402062</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4">
         <v>4.431267036850075</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="4">
         <v>4.167721065888903</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="4">
         <v>3.903237438684875</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="4">
         <v>3.638753811480843</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="4">
         <v>3.374270184276813</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="4">
         <v>3.109786557072783</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="4">
         <v>2.845302929868753</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="4">
         <v>2.580819302664723</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="4">
         <v>2.316335675460692</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="4">
         <v>2.051852048256662</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="4">
         <v>1.787368421052631</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="4">
         <v>1.522884793848602</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="4">
         <v>1.258401166644572</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="4">
         <v>0.9939175394405412</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="4">
         <v>0.7294339122365108</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="4">
         <v>0.4649502850324803</v>
       </c>
-      <c r="U6">
+      <c r="U6" s="4">
         <v>0.2004666578284502</v>
       </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
-      <c r="A7" t="s">
+      <c r="V6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="4">
         <v>4.703031357185819</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="4">
         <v>4.703031357185819</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="4">
         <v>4.561802030456855</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="4">
         <v>4.304822335025381</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="4">
         <v>4.047842639593908</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="4">
         <v>3.790862944162437</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="4">
         <v>3.533883248730964</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="4">
         <v>3.276903553299491</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="4">
         <v>3.01992385786802</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="4">
         <v>2.762944162436548</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="4">
         <v>2.505964467005076</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="4">
         <v>2.248984771573604</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="4">
         <v>1.992005076142132</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="4">
         <v>1.73502538071066</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="4">
         <v>1.478045685279188</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="4">
         <v>1.221065989847715</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="4">
         <v>0.9640862944162436</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="4">
         <v>0.7071065989847715</v>
       </c>
-      <c r="T7">
+      <c r="T7" s="4">
         <v>0.4501269035532995</v>
       </c>
-      <c r="U7">
+      <c r="U7" s="4">
         <v>0.1912571428571427</v>
       </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22">
-      <c r="A8" t="s">
+      <c r="V7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="4">
         <v>4.518868512303208</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="4">
         <v>4.518868512303212</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="4">
         <v>4.493316023738871</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="4">
         <v>4.240163204747773</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="4">
         <v>3.987010385756675</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="4">
         <v>3.733857566765578</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="4">
         <v>3.48070474777448</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="4">
         <v>3.227551928783385</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="4">
         <v>2.974399109792284</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="4">
         <v>2.721246290801187</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="4">
         <v>2.468093471810089</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="4">
         <v>2.214940652818989</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="4">
         <v>1.961787833827894</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="4">
         <v>1.708635014836795</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="4">
         <v>1.455482195845698</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="4">
         <v>1.202329376854599</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="4">
         <v>0.9491765578635013</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="4">
         <v>0.696023738872404</v>
       </c>
-      <c r="T8">
+      <c r="T8" s="4">
         <v>0.4428709198813056</v>
       </c>
-      <c r="U8">
+      <c r="U8" s="4">
         <v>0.1869287469287469</v>
       </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22">
-      <c r="A9" t="s">
+      <c r="V8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="4">
         <v>3.399167846540306</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="4">
         <v>3.399167846540306</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="4">
         <v>3.399167846540306</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="4">
         <v>3.399167846540306</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="4">
         <v>3.399167846540306</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="4">
         <v>3.399167846540306</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="4">
         <v>3.399167846540306</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="4">
         <v>3.399167846540306</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="4">
         <v>3.399167846540306</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="4">
         <v>3.356300470454427</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="4">
         <v>3.10295285597813</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="4">
         <v>2.84391252218119</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="4">
         <v>2.579537173806007</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="4">
         <v>2.247188577055636</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="4">
         <v>1.914839980305267</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="4">
         <v>1.582491383554899</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="4">
         <v>1.25014278680453</v>
       </c>
-      <c r="S9">
+      <c r="S9" s="4">
         <v>0.9177941900541599</v>
       </c>
-      <c r="T9">
+      <c r="T9" s="4">
         <v>0.584989816700611</v>
       </c>
-      <c r="U9">
+      <c r="U9" s="4">
         <v>0.2463951120162933</v>
       </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22">
-      <c r="A10" t="s">
+      <c r="V9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="4">
         <v>2.542957807581897</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="4">
         <v>2.542957807581896</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="4">
         <v>2.542957807581896</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="4">
         <v>2.542957807581896</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="4">
         <v>2.542957807581896</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="4">
         <v>2.542957807581896</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="4">
         <v>2.542957807581896</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="4">
         <v>2.448473566641848</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="4">
         <v>2.255807892777364</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="4">
         <v>2.063142218912882</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="4">
         <v>1.8704765450484</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="4">
         <v>1.677810871183916</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="4">
         <v>1.485145197319435</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="4">
         <v>1.292479523454952</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="4">
         <v>1.099813849590469</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="4">
         <v>0.9071481757259868</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="4">
         <v>0.714482501861504</v>
       </c>
-      <c r="S10">
+      <c r="S10" s="4">
         <v>0.5218168279970216</v>
       </c>
-      <c r="T10">
+      <c r="T10" s="4">
         <v>0.3268477292965271</v>
       </c>
-      <c r="U10">
+      <c r="U10" s="4">
         <v>0.129334677419355</v>
       </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22">
-      <c r="A11" t="s">
+      <c r="V10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="4">
         <v>2.179913837084084</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="4">
         <v>2.179913837084066</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="4">
         <v>2.179913837084066</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="4">
         <v>2.131773049645398</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="4">
         <v>2.00322695035461</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="4">
         <v>1.874680851063829</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="4">
         <v>1.746134751773049</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="4">
         <v>1.61758865248227</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="4">
         <v>1.489042553191489</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="4">
         <v>1.360496453900709</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="4">
         <v>1.231950354609929</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="4">
         <v>1.103404255319149</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="4">
         <v>0.9748581560283689</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="4">
         <v>0.8463120567375885</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="4">
         <v>0.7177659574468084</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="4">
         <v>0.5892198581560283</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="4">
         <v>0.4606737588652482</v>
       </c>
-      <c r="S11">
+      <c r="S11" s="4">
         <v>0.332127659574468</v>
       </c>
-      <c r="T11">
+      <c r="T11" s="4">
         <v>0.2035815602836879</v>
       </c>
-      <c r="U11">
+      <c r="U11" s="4">
         <v>0.07375494071146238</v>
       </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22">
-      <c r="A12" t="s">
+      <c r="V11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="4">
         <v>2.140048367593712</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="4">
         <v>2.140048367593712</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="4">
         <v>2.140048367593712</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="4">
         <v>2.140048367593712</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="4">
         <v>2.140048367593712</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="4">
         <v>2.140048367593712</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="4">
         <v>2.140048367593712</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="4">
         <v>2.140048367593712</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="4">
         <v>2.057436823104693</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="4">
         <v>1.881444043321299</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="4">
         <v>1.705451263537905</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="4">
         <v>1.529458483754512</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="4">
         <v>1.353465703971118</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="4">
         <v>1.177472924187725</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="4">
         <v>1.001480144404332</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="4">
         <v>0.8254873646209384</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="4">
         <v>0.6494945848375449</v>
       </c>
-      <c r="S12">
+      <c r="S12" s="4">
         <v>0.4735018050541515</v>
       </c>
-      <c r="T12">
+      <c r="T12" s="4">
         <v>0.297509025270758</v>
       </c>
-      <c r="U12">
+      <c r="U12" s="4">
         <v>0.1194335511982569</v>
       </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22">
-      <c r="A13" t="s">
+      <c r="V12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="4">
         <v>1.815163849549608</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="4">
         <v>1.815163849549608</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="4">
         <v>1.815163849549608</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="4">
         <v>1.815163849549608</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="4">
         <v>1.815163849549608</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="4">
         <v>1.815163849549608</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="4">
         <v>1.815163849549608</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="4">
         <v>1.815163849549608</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="4">
         <v>1.815163849549608</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="4">
         <v>1.815163849549608</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="4">
         <v>1.706659415643889</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="4">
         <v>1.538616962813702</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="4">
         <v>1.368129170035614</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="4">
         <v>1.195062050947094</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="4">
         <v>1.018706727629001</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="4">
         <v>0.842351404310908</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="4">
         <v>0.6659960809928153</v>
       </c>
-      <c r="S13">
+      <c r="S13" s="4">
         <v>0.4896407576747225</v>
       </c>
-      <c r="T13">
+      <c r="T13" s="4">
         <v>0.3132854343566297</v>
       </c>
-      <c r="U13">
+      <c r="U13" s="4">
         <v>0.1344716692189893</v>
       </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22">
-      <c r="A14" t="s">
+      <c r="V13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="4">
         <v>1.804008154150138</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="4">
         <v>1.804008154150138</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="4">
         <v>1.804008154150138</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="4">
         <v>1.804008154150138</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="4">
         <v>1.804008154150138</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="4">
         <v>1.804008154150138</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="4">
         <v>1.804008154150138</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="4">
         <v>1.690632792560213</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="4">
         <v>1.556270719042449</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="4">
         <v>1.421908645524686</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="4">
         <v>1.287546572006923</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="4">
         <v>1.153184498489159</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="4">
         <v>1.018822424971396</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="4">
         <v>0.8844603514536332</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="4">
         <v>0.7500982779358697</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" s="4">
         <v>0.6157362044181064</v>
       </c>
-      <c r="R14">
+      <c r="R14" s="4">
         <v>0.4813741309003431</v>
       </c>
-      <c r="S14">
+      <c r="S14" s="4">
         <v>0.3470120573825797</v>
       </c>
-      <c r="T14">
+      <c r="T14" s="4">
         <v>0.2126499838648165</v>
       </c>
-      <c r="U14">
+      <c r="U14" s="4">
         <v>0.07496080201453902</v>
       </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22">
-      <c r="A15" t="s">
+      <c r="V14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="4">
         <v>1.785380720608889</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="4">
         <v>1.785380720608895</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="4">
         <v>1.785380720608895</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="4">
         <v>1.785380720608895</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="4">
         <v>1.785380720608895</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="4">
         <v>1.785380720608895</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="4">
         <v>1.785380720608895</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="4">
         <v>1.785380720608895</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="4">
         <v>1.752904411764705</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="4">
         <v>1.604152476780188</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="4">
         <v>1.455400541795667</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="4">
         <v>1.306648606811147</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="4">
         <v>1.157896671826626</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="4">
         <v>1.009144736842106</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="4">
         <v>0.8603928018575862</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" s="4">
         <v>0.711640866873066</v>
       </c>
-      <c r="R15">
+      <c r="R15" s="4">
         <v>0.5628889318885456</v>
       </c>
-      <c r="S15">
+      <c r="S15" s="4">
         <v>0.4141369969040253</v>
       </c>
-      <c r="T15">
+      <c r="T15" s="4">
         <v>0.2652131622516556</v>
       </c>
-      <c r="U15">
+      <c r="U15" s="4">
         <v>0.1128543072647877</v>
       </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22">
-      <c r="A16" t="s">
+      <c r="V15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B16">
-        <v>1.60428389154705</v>
-      </c>
-      <c r="C16">
+      <c r="B16" s="4">
+        <v>1.60428389154705</v>
+      </c>
+      <c r="C16" s="4">
         <v>1.604283891547051</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="4">
         <v>1.604283891547051</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="4">
         <v>1.604283891547051</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="4">
         <v>1.604283891547051</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="4">
         <v>1.604283891547051</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="4">
         <v>1.604283891547051</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="4">
         <v>1.604283891547051</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="4">
         <v>1.604283891547051</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="4">
         <v>1.604283891547051</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="4">
         <v>1.604283891547051</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="4">
         <v>1.604283891547051</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="4">
         <v>1.579696526383832</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="4">
         <v>1.403549144354098</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="4">
         <v>1.227401762324362</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" s="4">
         <v>1.049363469371456</v>
       </c>
-      <c r="R16">
+      <c r="R16" s="4">
         <v>0.8710630141362511</v>
       </c>
-      <c r="S16">
+      <c r="S16" s="4">
         <v>0.6927625589010459</v>
       </c>
-      <c r="T16">
+      <c r="T16" s="4">
         <v>0.5144621036658413</v>
       </c>
-      <c r="U16">
+      <c r="U16" s="4">
         <v>0.3361616484306367</v>
       </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22">
-      <c r="A17" t="s">
+      <c r="V16" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B17">
-        <v>1.60428389154705</v>
-      </c>
-      <c r="C17">
-        <v>1.60428389154705</v>
-      </c>
-      <c r="D17">
-        <v>1.60428389154705</v>
-      </c>
-      <c r="E17">
-        <v>1.60428389154705</v>
-      </c>
-      <c r="F17">
-        <v>1.60428389154705</v>
-      </c>
-      <c r="G17">
-        <v>1.60428389154705</v>
-      </c>
-      <c r="H17">
-        <v>1.60428389154705</v>
-      </c>
-      <c r="I17">
-        <v>1.60428389154705</v>
-      </c>
-      <c r="J17">
-        <v>1.60428389154705</v>
-      </c>
-      <c r="K17">
-        <v>1.60428389154705</v>
-      </c>
-      <c r="L17">
-        <v>1.60428389154705</v>
-      </c>
-      <c r="M17">
-        <v>1.60428389154705</v>
-      </c>
-      <c r="N17">
+      <c r="B17" s="4">
+        <v>1.60428389154705</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1.60428389154705</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1.60428389154705</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1.60428389154705</v>
+      </c>
+      <c r="F17" s="4">
+        <v>1.60428389154705</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1.60428389154705</v>
+      </c>
+      <c r="H17" s="4">
+        <v>1.60428389154705</v>
+      </c>
+      <c r="I17" s="4">
+        <v>1.60428389154705</v>
+      </c>
+      <c r="J17" s="4">
+        <v>1.60428389154705</v>
+      </c>
+      <c r="K17" s="4">
+        <v>1.60428389154705</v>
+      </c>
+      <c r="L17" s="4">
+        <v>1.60428389154705</v>
+      </c>
+      <c r="M17" s="4">
+        <v>1.60428389154705</v>
+      </c>
+      <c r="N17" s="4">
         <v>1.579696526383833</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="4">
         <v>1.403549144354098</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="4">
         <v>1.227401762324364</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" s="4">
         <v>1.049363469371456</v>
       </c>
-      <c r="R17">
+      <c r="R17" s="4">
         <v>0.8710630141362513</v>
       </c>
-      <c r="S17">
+      <c r="S17" s="4">
         <v>0.6927625589010467</v>
       </c>
-      <c r="T17">
+      <c r="T17" s="4">
         <v>0.5144621036658419</v>
       </c>
-      <c r="U17">
+      <c r="U17" s="4">
         <v>0.3361616484306355</v>
       </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22">
-      <c r="A18" t="s">
+      <c r="V17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B18">
-        <v>1.60428389154705</v>
-      </c>
-      <c r="C18">
-        <v>1.60428389154705</v>
-      </c>
-      <c r="D18">
-        <v>1.60428389154705</v>
-      </c>
-      <c r="E18">
-        <v>1.60428389154705</v>
-      </c>
-      <c r="F18">
-        <v>1.60428389154705</v>
-      </c>
-      <c r="G18">
-        <v>1.60428389154705</v>
-      </c>
-      <c r="H18">
-        <v>1.60428389154705</v>
-      </c>
-      <c r="I18">
-        <v>1.60428389154705</v>
-      </c>
-      <c r="J18">
-        <v>1.60428389154705</v>
-      </c>
-      <c r="K18">
-        <v>1.60428389154705</v>
-      </c>
-      <c r="L18">
-        <v>1.60428389154705</v>
-      </c>
-      <c r="M18">
-        <v>1.60428389154705</v>
-      </c>
-      <c r="N18">
+      <c r="B18" s="4">
+        <v>1.60428389154705</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1.60428389154705</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1.60428389154705</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1.60428389154705</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1.60428389154705</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1.60428389154705</v>
+      </c>
+      <c r="H18" s="4">
+        <v>1.60428389154705</v>
+      </c>
+      <c r="I18" s="4">
+        <v>1.60428389154705</v>
+      </c>
+      <c r="J18" s="4">
+        <v>1.60428389154705</v>
+      </c>
+      <c r="K18" s="4">
+        <v>1.60428389154705</v>
+      </c>
+      <c r="L18" s="4">
+        <v>1.60428389154705</v>
+      </c>
+      <c r="M18" s="4">
+        <v>1.60428389154705</v>
+      </c>
+      <c r="N18" s="4">
         <v>1.579696526383833</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="4">
         <v>1.403549144354099</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="4">
         <v>1.227401762324364</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" s="4">
         <v>1.049363469371456</v>
       </c>
-      <c r="R18">
+      <c r="R18" s="4">
         <v>0.8710630141362509</v>
       </c>
-      <c r="S18">
+      <c r="S18" s="4">
         <v>0.6927625589010462</v>
       </c>
-      <c r="T18">
+      <c r="T18" s="4">
         <v>0.5144621036658412</v>
       </c>
-      <c r="U18">
+      <c r="U18" s="4">
         <v>0.3361616484306363</v>
       </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22">
-      <c r="A19" t="s">
+      <c r="V18" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="4">
         <v>1.575376395534291</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="4">
         <v>1.575376395534291</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="4">
         <v>1.575376395534291</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="4">
         <v>1.575376395534291</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="4">
         <v>1.575376395534291</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="4">
         <v>1.575376395534291</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="4">
         <v>1.575376395534291</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="4">
         <v>1.575376395534291</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="4">
         <v>1.575376395534291</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="4">
         <v>1.575376395534291</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="4">
         <v>1.575376395534291</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="4">
         <v>1.575376395534291</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="4">
         <v>1.466999625761237</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="4">
         <v>1.290852243731501</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="4">
         <v>1.1138551233927</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" s="4">
         <v>0.9355546681574949</v>
       </c>
-      <c r="R19">
+      <c r="R19" s="4">
         <v>0.7572542129222901</v>
       </c>
-      <c r="S19">
+      <c r="S19" s="4">
         <v>0.5789537576870852</v>
       </c>
-      <c r="T19">
+      <c r="T19" s="4">
         <v>0.3961985750402202</v>
       </c>
-      <c r="U19">
+      <c r="U19" s="4">
         <v>0.1853171390013495</v>
       </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22">
-      <c r="A20" t="s">
+      <c r="V19" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="4">
         <v>1.565419247419247</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="4">
         <v>1.565419247419247</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="4">
         <v>1.565419247419247</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="4">
         <v>1.565419247419247</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="4">
         <v>1.565419247419247</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="4">
         <v>1.565419247419247</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="4">
         <v>1.565419247419247</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="4">
         <v>1.565419247419247</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="4">
         <v>1.565419247419247</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="4">
         <v>1.565419247419247</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="4">
         <v>1.565419247419247</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="4">
         <v>1.565419247419247</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="4">
         <v>1.48193085518231</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="4">
         <v>1.305783473152575</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="4">
         <v>1.129060347846387</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" s="4">
         <v>0.9507598926111821</v>
       </c>
-      <c r="R20">
+      <c r="R20" s="4">
         <v>0.7724594373759774</v>
       </c>
-      <c r="S20">
+      <c r="S20" s="4">
         <v>0.5941589821407725</v>
       </c>
-      <c r="T20">
+      <c r="T20" s="4">
         <v>0.4136254138874224</v>
       </c>
-      <c r="U20">
+      <c r="U20" s="4">
         <v>0.2120110928208093</v>
       </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22">
-      <c r="A21" t="s">
+      <c r="V20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="4">
         <v>1.552525100744504</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="4">
         <v>1.552525100744504</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="4">
         <v>1.552525100744504</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="4">
         <v>1.552525100744504</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="4">
         <v>1.552525100744504</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="4">
         <v>1.552525100744504</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="4">
         <v>1.552525100744504</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="4">
         <v>1.552525100744504</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="4">
         <v>1.552525100744504</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="4">
         <v>1.552525100744504</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="4">
         <v>1.455400541795668</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="4">
         <v>1.306648606811147</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="4">
         <v>1.157896671826627</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="4">
         <v>1.009144736842107</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="4">
         <v>0.8603928018575864</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" s="4">
         <v>0.7116408668730659</v>
       </c>
-      <c r="R21">
+      <c r="R21" s="4">
         <v>0.5628889318885456</v>
       </c>
-      <c r="S21">
+      <c r="S21" s="4">
         <v>0.4141369969040253</v>
       </c>
-      <c r="T21">
+      <c r="T21" s="4">
         <v>0.2652131622516556</v>
       </c>
-      <c r="U21">
+      <c r="U21" s="4">
         <v>0.1128543072647877</v>
       </c>
-      <c r="V21">
+      <c r="V21" s="5">
         <v>0</v>
       </c>
     </row>

--- a/Output/Media/Oxygen/yl_perox_oxygen_equalmass.xlsx
+++ b/Output/Media/Oxygen/yl_perox_oxygen_equalmass.xlsx
@@ -82,8 +82,7 @@
     <t>0.0</t>
   </si>
   <si>
-    <t xml:space="preserve">stearate exchange
-</t>
+    <t>stearate exchange</t>
   </si>
   <si>
     <t>palmitate exchange</t>
@@ -148,7 +147,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +158,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -195,16 +200,16 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -616,7 +621,7 @@
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -684,7 +689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -752,7 +757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -820,7 +825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -888,7 +893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
@@ -956,7 +961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
@@ -1024,7 +1029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
@@ -1092,7 +1097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -1160,7 +1165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
@@ -1228,7 +1233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
@@ -1296,7 +1301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
@@ -1364,7 +1369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
@@ -1432,7 +1437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
@@ -1500,7 +1505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
@@ -1568,7 +1573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1" t="s">
         <v>36</v>
       </c>
@@ -1636,7 +1641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1" t="s">
         <v>37</v>
       </c>
@@ -1704,7 +1709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
@@ -1772,7 +1777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -1840,7 +1845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
@@ -1908,7 +1913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
